--- a/Bibsam_tidskriftslistor/scifree_data_johnbenjamin.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_johnbenjamin.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_FA850B1B9BF82AB29021F79D0B027AC9DA6FA7F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D1A788-7FBC-4A18-BB14-B9BFE4B791D6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="359">
   <si>
     <t>Open</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Babel</t>
   </si>
   <si>
-    <t>Belgian Journal of Linguistics</t>
-  </si>
-  <si>
     <t>Bochumer Philosophisches Jahrbuch für Antike und Mittelalter</t>
   </si>
   <si>
@@ -225,9 +223,6 @@
     <t>Linguistic Variation</t>
   </si>
   <si>
-    <t>Linguistics in the Netherlands</t>
-  </si>
-  <si>
     <t>Linguistics of the Tibeto-Burman Area</t>
   </si>
   <si>
@@ -270,9 +265,6 @@
     <t>Revue Romane</t>
   </si>
   <si>
-    <t>Scientific Study of Literature</t>
-  </si>
-  <si>
     <t>Sign Language &amp; Linguistics</t>
   </si>
   <si>
@@ -333,9 +325,6 @@
     <t>1569-9668</t>
   </si>
   <si>
-    <t>1569-9676</t>
-  </si>
-  <si>
     <t>1569-9684</t>
   </si>
   <si>
@@ -489,9 +478,6 @@
     <t>2211-6842</t>
   </si>
   <si>
-    <t>1569-9919</t>
-  </si>
-  <si>
     <t>2214-5907</t>
   </si>
   <si>
@@ -534,9 +520,6 @@
     <t>1600-0811</t>
   </si>
   <si>
-    <t>2210-4380</t>
-  </si>
-  <si>
     <t>1569-996X</t>
   </si>
   <si>
@@ -597,9 +580,6 @@
     <t>0521-9744</t>
   </si>
   <si>
-    <t>0774-5141</t>
-  </si>
-  <si>
     <t>1384-6663</t>
   </si>
   <si>
@@ -753,9 +733,6 @@
     <t>2211-6834</t>
   </si>
   <si>
-    <t>0929-7332</t>
-  </si>
-  <si>
     <t>0731-3500</t>
   </si>
   <si>
@@ -798,9 +775,6 @@
     <t>0035-3906</t>
   </si>
   <si>
-    <t>2210-4372</t>
-  </si>
-  <si>
     <t>1387-9316</t>
   </si>
   <si>
@@ -864,9 +838,6 @@
     <t>https://benjamins.com/catalog/babel</t>
   </si>
   <si>
-    <t>https://benjamins.com/catalog/bjl</t>
-  </si>
-  <si>
     <t>https://benjamins.com/catalog/bpjam</t>
   </si>
   <si>
@@ -1020,9 +991,6 @@
     <t>https://benjamins.com/catalog/lv</t>
   </si>
   <si>
-    <t>https://benjamins.com/catalog/avt</t>
-  </si>
-  <si>
     <t>https://benjamins.com/catalog/ltba</t>
   </si>
   <si>
@@ -1065,9 +1033,6 @@
     <t>https://benjamins.com/catalog/rro</t>
   </si>
   <si>
-    <t>https://benjamins.com/catalog/ssol</t>
-  </si>
-  <si>
     <t>https://benjamins.com/catalog/sll</t>
   </si>
   <si>
@@ -1108,22 +1073,38 @@
   </si>
   <si>
     <t>https://benjamins.com/catalog/wll</t>
+  </si>
+  <si>
+    <t>2950-1792</t>
+  </si>
+  <si>
+    <t>2950-1806</t>
+  </si>
+  <si>
+    <t>Arabic Linguistics</t>
+  </si>
+  <si>
+    <t>https://benjamins.com/catalog/arli</t>
+  </si>
+  <si>
+    <t>2950-1881</t>
+  </si>
+  <si>
+    <t>2950-189X</t>
+  </si>
+  <si>
+    <t>Nota Bene</t>
+  </si>
+  <si>
+    <t>https://benjamins.com/catalog/nb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1151,62 +1132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1220,19 +1152,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G89" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G89"/>
-  <sortState ref="A2:G83">
-    <sortCondition ref="D1:D83"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{382A8B49-C3A4-4BBF-BD4A-0B59EA5AC757}" name="Table2" displayName="Table2" ref="A1:G88" totalsRowShown="0">
+  <autoFilter ref="A1:G88" xr:uid="{382A8B49-C3A4-4BBF-BD4A-0B59EA5AC757}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{2FD4C316-6DD8-4B81-9212-1984760A02AA}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{673491EE-1C5A-4FB2-AA99-4C91B3FE2CEE}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{4F00FB33-F987-4F5D-9EFF-EB277E9DCEE6}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{DE3EA32F-EC76-4387-98C6-5B489B6FB6E4}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{5DC0BD65-F626-41F1-AF89-B1BE1EDD0586}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{F6E2BFC8-8AD9-4C82-B836-27889290299A}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{D92AE4AB-6761-4E3D-A3F2-5B1EDF73E973}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1500,60 +1429,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45E61CA-3546-40E9-85B2-532C1E35B1D4}">
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="68.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1564,19 +1495,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1587,19 +1518,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>354</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -1610,19 +1541,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1633,19 +1564,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -1656,19 +1587,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1679,19 +1610,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1702,19 +1633,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -1725,19 +1656,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1748,19 +1679,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>274</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>284</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1771,19 +1702,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1794,19 +1725,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1817,19 +1748,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1840,19 +1771,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1863,19 +1794,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1886,19 +1817,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1909,19 +1840,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1932,19 +1863,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1955,19 +1886,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1978,19 +1909,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -2001,19 +1932,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -2024,19 +1955,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -2047,19 +1978,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -2070,19 +2001,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -2093,19 +2024,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -2116,19 +2047,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -2139,19 +2070,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -2162,19 +2093,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -2185,19 +2116,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -2208,19 +2139,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -2231,19 +2162,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -2254,19 +2185,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -2277,19 +2208,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -2300,19 +2231,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -2323,19 +2254,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -2346,19 +2277,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -2369,19 +2300,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -2392,19 +2323,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -2415,19 +2346,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -2438,19 +2369,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -2461,19 +2392,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -2484,19 +2415,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -2507,19 +2438,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -2530,19 +2461,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -2553,19 +2484,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -2576,19 +2507,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -2599,19 +2530,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
@@ -2622,19 +2553,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
@@ -2645,19 +2576,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2668,19 +2599,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
@@ -2691,19 +2622,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -2714,19 +2645,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -2737,19 +2668,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -2760,19 +2691,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -2783,19 +2714,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -2806,19 +2737,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -2829,19 +2760,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -2852,19 +2783,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -2875,19 +2806,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E60" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -2898,19 +2829,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E61" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
@@ -2921,19 +2852,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E62" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -2944,19 +2875,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -2967,19 +2898,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="C64" t="s">
-        <v>248</v>
+        <v>356</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="E64" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
@@ -2990,19 +2921,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -3013,19 +2944,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E66" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -3036,19 +2967,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
@@ -3059,19 +2990,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E68" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
@@ -3082,19 +3013,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
@@ -3105,19 +3036,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E70" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
@@ -3128,19 +3059,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F71" t="s">
         <v>8</v>
@@ -3151,19 +3082,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
@@ -3174,19 +3105,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E73" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
@@ -3197,19 +3128,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F74" t="s">
         <v>8</v>
@@ -3220,19 +3151,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E75" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F75" t="s">
         <v>8</v>
@@ -3243,19 +3174,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
@@ -3266,19 +3197,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E77" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F77" t="s">
         <v>8</v>
@@ -3289,19 +3220,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E78" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
@@ -3312,19 +3243,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
@@ -3335,19 +3266,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E80" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F80" t="s">
         <v>8</v>
@@ -3358,19 +3289,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B81" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F81" t="s">
         <v>8</v>
@@ -3381,19 +3312,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F82" t="s">
         <v>8</v>
@@ -3404,19 +3335,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F83" t="s">
         <v>8</v>
@@ -3427,19 +3358,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
@@ -3450,19 +3381,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E85" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F85" t="s">
         <v>8</v>
@@ -3473,19 +3404,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F86" t="s">
         <v>8</v>
@@ -3496,19 +3427,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E87" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="F87" t="s">
         <v>8</v>
@@ -3519,19 +3450,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E88" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F88" t="s">
         <v>8</v>
@@ -3540,43 +3471,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>274</v>
-      </c>
-      <c r="B89" t="s">
-        <v>185</v>
-      </c>
-      <c r="C89" t="s">
-        <v>273</v>
-      </c>
-      <c r="D89" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89" t="s">
-        <v>362</v>
-      </c>
-      <c r="F89" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E89">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_johnbenjamin.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_johnbenjamin.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_FA850B1B9BF82AB29021F79D0B027AC9DA6FA7F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D1A788-7FBC-4A18-BB14-B9BFE4B791D6}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_FA850B1B9BF82AB29021F79D0B027AC9DA6FA7F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A370FA3B-E967-4C6F-ABFB-4CFF2B7EAB47}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="363">
   <si>
     <t>Open</t>
   </si>
@@ -1097,6 +1097,18 @@
   </si>
   <si>
     <t>https://benjamins.com/catalog/nb</t>
+  </si>
+  <si>
+    <t>2950-5798</t>
+  </si>
+  <si>
+    <t>2950-578X</t>
+  </si>
+  <si>
+    <t>Journal of Language and Pop Culture</t>
+  </si>
+  <si>
+    <t>http://www.jbe-platform.com/content/journals/29505798</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1164,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{382A8B49-C3A4-4BBF-BD4A-0B59EA5AC757}" name="Table2" displayName="Table2" ref="A1:G88" totalsRowShown="0">
-  <autoFilter ref="A1:G88" xr:uid="{382A8B49-C3A4-4BBF-BD4A-0B59EA5AC757}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{382A8B49-C3A4-4BBF-BD4A-0B59EA5AC757}" name="Table2" displayName="Table2" ref="A1:G89" totalsRowShown="0">
+  <autoFilter ref="A1:G89" xr:uid="{382A8B49-C3A4-4BBF-BD4A-0B59EA5AC757}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G89">
+    <sortCondition ref="D1:D89"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2FD4C316-6DD8-4B81-9212-1984760A02AA}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{673491EE-1C5A-4FB2-AA99-4C91B3FE2CEE}" name="ISSN Electronic"/>
@@ -1430,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45E61CA-3546-40E9-85B2-532C1E35B1D4}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2418,16 +2433,16 @@
         <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>361</v>
       </c>
       <c r="E43" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -2441,16 +2456,16 @@
         <v>265</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -2464,16 +2479,16 @@
         <v>265</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -2487,16 +2502,16 @@
         <v>265</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -2510,16 +2525,16 @@
         <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
@@ -2533,19 +2548,19 @@
         <v>265</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F48" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
@@ -2556,19 +2571,19 @@
         <v>265</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -2579,19 +2594,19 @@
         <v>265</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F50" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
@@ -2602,19 +2617,19 @@
         <v>265</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
         <v>9</v>
@@ -2625,16 +2640,16 @@
         <v>265</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -2648,16 +2663,16 @@
         <v>265</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -2671,16 +2686,16 @@
         <v>265</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -2694,16 +2709,16 @@
         <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
@@ -2717,16 +2732,16 @@
         <v>265</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -2740,16 +2755,16 @@
         <v>265</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
@@ -2763,16 +2778,16 @@
         <v>265</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -2786,16 +2801,16 @@
         <v>265</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
@@ -2809,16 +2824,16 @@
         <v>265</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -2832,16 +2847,16 @@
         <v>265</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
@@ -2855,16 +2870,16 @@
         <v>265</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -2878,16 +2893,16 @@
         <v>265</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
@@ -2901,16 +2916,16 @@
         <v>265</v>
       </c>
       <c r="B64" t="s">
-        <v>355</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="D64" t="s">
-        <v>357</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
@@ -2924,16 +2939,16 @@
         <v>265</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>355</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="E65" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
@@ -2947,16 +2962,16 @@
         <v>265</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -2970,16 +2985,16 @@
         <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
@@ -2993,16 +3008,16 @@
         <v>265</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
@@ -3016,16 +3031,16 @@
         <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
@@ -3039,16 +3054,16 @@
         <v>265</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
@@ -3062,16 +3077,16 @@
         <v>265</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F71" t="s">
         <v>8</v>
@@ -3085,16 +3100,16 @@
         <v>265</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
@@ -3108,16 +3123,16 @@
         <v>265</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
@@ -3131,16 +3146,16 @@
         <v>265</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F74" t="s">
         <v>8</v>
@@ -3154,16 +3169,16 @@
         <v>265</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F75" t="s">
         <v>8</v>
@@ -3177,16 +3192,16 @@
         <v>265</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
@@ -3200,16 +3215,16 @@
         <v>265</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F77" t="s">
         <v>8</v>
@@ -3223,16 +3238,16 @@
         <v>265</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
@@ -3246,16 +3261,16 @@
         <v>265</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
@@ -3269,16 +3284,16 @@
         <v>265</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F80" t="s">
         <v>8</v>
@@ -3292,16 +3307,16 @@
         <v>265</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F81" t="s">
         <v>8</v>
@@ -3315,16 +3330,16 @@
         <v>265</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F82" t="s">
         <v>8</v>
@@ -3338,16 +3353,16 @@
         <v>265</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F83" t="s">
         <v>8</v>
@@ -3361,16 +3376,16 @@
         <v>265</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
@@ -3384,16 +3399,16 @@
         <v>265</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F85" t="s">
         <v>8</v>
@@ -3407,16 +3422,16 @@
         <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F86" t="s">
         <v>8</v>
@@ -3430,16 +3445,16 @@
         <v>265</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C87" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F87" t="s">
         <v>8</v>
@@ -3453,21 +3468,44 @@
         <v>265</v>
       </c>
       <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" t="s">
+        <v>349</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" t="s">
         <v>179</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>264</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>94</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>350</v>
       </c>
-      <c r="F88" t="s">
-        <v>8</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
         <v>9</v>
       </c>
     </row>
